--- a/src/main/resources/165-mall4cloud/mall4cloud-common-cache_structure.xlsx
+++ b/src/main/resources/165-mall4cloud/mall4cloud-common-cache_structure.xlsx
@@ -151,7 +151,7 @@
     <t>com.mall4j.cloud.common.cache.config.RedisCacheConfig</t>
   </si>
   <si>
-    <t>redisTemplate(org.springframework.data.redis.connection.RedisConnectionFactory)</t>
+    <t>redisTemplate(org.springframework.data.redis.connection.RedisConnectionFactory,org.springframework.data.redis.serializer.RedisSerializer)</t>
   </si>
   <si>
     <t>org.springframework.data.redis.core.RedisTemplate</t>
@@ -163,7 +163,7 @@
     <t>com.mall4j.cloud.common.cache.adapter.CacheTtlAdapter</t>
   </si>
   <si>
-    <t>cacheManager(org.springframework.data.redis.connection.RedisConnectionFactory)</t>
+    <t>cacheManager(org.springframework.data.redis.connection.RedisConnectionFactory,com.mall4j.cloud.common.cache.adapter.CacheTtlAdapter)</t>
   </si>
   <si>
     <t>org.springframework.cache.CacheManager</t>
